--- a/telemetry_success.xlsx
+++ b/telemetry_success.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -500,41 +500,98 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>13:29:57</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025.1.4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>build_completion_s=20.752
+design_refine_completion_s=23.613
+functional_requirements_enrichment_s=5.995
+gather_inputs_s=0.373
+planning_completion_s=14.402
+refine_completion_s=22.298
+total_s=87.433</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>87.43300000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>10:45:26</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>32</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>build_completion_s=18.616
 design_refine_completion_s=17.872
@@ -545,7 +602,7 @@
 total_s=83.765</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>83.765</v>
       </c>
     </row>

--- a/telemetry_success.xlsx
+++ b/telemetry_success.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -500,41 +500,432 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>14:51:39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>chat_completion_s=18.658
+gather_inputs_s=0.000
+total_s=18.658</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>18.658</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:50:14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>build_completion_s=18.333
+design_refine_completion_s=18.129
+functional_requirements_enrichment_s=13.874
+gather_inputs_s=0.238
+planning_completion_s=16.320
+refine_completion_s=16.102
+total_s=82.996</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>82.996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:39:22</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>chat_completion_s=49.473
+gather_inputs_s=0.000
+total_s=49.473</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>49.473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14:37:27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>build_completion_s=25.755
+design_refine_completion_s=28.412
+functional_requirements_enrichment_s=16.129
+gather_inputs_s=0.246
+planning_completion_s=11.410
+refine_completion_s=65.462
+total_s=147.414</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>147.414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14:28:55</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>build_completion_s=24.596
+design_refine_completion_s=19.927
+functional_requirements_enrichment_s=28.776
+gather_inputs_s=0.267
+planning_completion_s=14.888
+refine_completion_s=22.330
+total_s=110.784</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>110.784</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14:15:28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>build_completion_s=28.565
+design_refine_completion_s=22.528
+functional_requirements_enrichment_s=16.756
+gather_inputs_s=13.606
+planning_completion_s=22.486
+refine_completion_s=23.281
+total_s=127.222</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>127.222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:41:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>build_completion_s=23.330
+design_refine_completion_s=28.326
+functional_requirements_enrichment_s=13.423
+gather_inputs_s=51.306
+planning_completion_s=14.732
+refine_completion_s=21.278
+total_s=152.395</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>152.395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>13:29:57</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H9" t="n">
         <v>36</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I9" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>build_completion_s=20.752
 design_refine_completion_s=23.613
@@ -545,53 +936,53 @@
 total_s=87.433</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K9" t="n">
         <v>87.43300000000001</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>10:45:26</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H10" t="n">
         <v>32</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>build_completion_s=18.616
 design_refine_completion_s=17.872
@@ -602,7 +993,7 @@
 total_s=83.765</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K10" t="n">
         <v>83.765</v>
       </c>
     </row>

--- a/telemetry_success.xlsx
+++ b/telemetry_success.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -495,99 +495,735 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:20:48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>build_completion_s=27.332
+design_refine_completion_s=21.158
+functional_requirements_enrichment_s=13.602
+gather_inputs_s=0.317
+planning_completion_s=17.820
+refine_completion_s=20.327
+testing_documentation_alignment_s=0.001
+total_s=100.557</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>100.557</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12:16:57</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>build_completion_s=29.627
+design_refine_completion_s=23.510
+functional_requirements_enrichment_s=15.004
+gather_inputs_s=11.614
+planning_completion_s=12.496
+refine_completion_s=24.902
+testing_documentation_alignment_s=9.334
+total_s=126.487</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>126.487</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11:58:03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>build_completion_s=48.851
+design_refine_completion_s=56.609
+functional_requirements_enrichment_s=18.368
+gather_inputs_s=11.610
+planning_completion_s=12.266
+refine_completion_s=20.237
+testing_documentation_alignment_s=0.000
+total_s=167.941</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>167.941</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11:41:08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>build_completion_s=19.278
+design_refine_completion_s=20.013
+functional_requirements_enrichment_s=11.066
+gather_inputs_s=13.953
+planning_completion_s=17.137
+refine_completion_s=22.317
+testing_documentation_alignment_s=0.000
+total_s=103.764</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>103.764</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:37:11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>build_completion_s=20.077
+design_refine_completion_s=18.519
+functional_requirements_enrichment_s=14.248
+gather_inputs_s=0.216
+planning_completion_s=17.769
+refine_completion_s=19.470
+testing_documentation_alignment_s=0.002
+total_s=90.301</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>90.301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11:26:15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>build_completion_s=27.271
+design_refine_completion_s=66.017
+functional_requirements_enrichment_s=25.079
+gather_inputs_s=0.221
+planning_completion_s=10.846
+refine_completion_s=22.549
+testing_documentation_alignment_s=8.326
+total_s=160.309</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>160.309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:09:21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>build_completion_s=24.004
+design_refine_completion_s=16.280
+functional_requirements_enrichment_s=18.511
+gather_inputs_s=0.230
+planning_completion_s=12.226
+refine_completion_s=19.747
+testing_documentation_alignment_s=0.000
+total_s=90.998</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>90.998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10:39:59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>build_completion_s=21.338
+design_refine_completion_s=65.198
+functional_requirements_enrichment_s=18.022
+gather_inputs_s=0.231
+planning_completion_s=14.946
+refine_completion_s=24.378
+testing_documentation_alignment_s=0.000
+total_s=144.113</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>144.113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10:32:44</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>36</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>build_completion_s=31.348
+design_refine_completion_s=19.442
+functional_requirements_enrichment_s=17.270
+gather_inputs_s=0.239
+planning_completion_s=11.172
+refine_completion_s=18.881
+testing_documentation_alignment_s=0.000
+total_s=98.352</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>98.352</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09:11:05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025.1.7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>build_completion_s=25.178
+design_refine_completion_s=29.853
+functional_requirements_enrichment_s=17.106
+gather_inputs_s=0.209
+planning_completion_s=14.676
+refine_completion_s=24.261
+total_s=111.283</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>111.283</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15:31:08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025.1.6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>build_completion_s=14.938
+design_refine_completion_s=15.674
+functional_requirements_enrichment_s=25.204
+gather_inputs_s=0.235
+planning_completion_s=8.520
+refine_completion_s=14.791
+total_s=79.362</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>79.36199999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>14:51:39</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>chat_completion_s=18.658
 gather_inputs_s=0.000
 total_s=18.658</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K13" t="n">
         <v>18.658</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>14:50:14</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>37</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>build_completion_s=18.333
 design_refine_completion_s=18.129
@@ -598,106 +1234,106 @@
 total_s=82.996</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K14" t="n">
         <v>82.996</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>14:39:22</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>chat_completion_s=49.473
 gather_inputs_s=0.000
 total_s=49.473</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K15" t="n">
         <v>49.473</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>14:37:27</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>36</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>build_completion_s=25.755
 design_refine_completion_s=28.412
@@ -708,53 +1344,53 @@
 total_s=147.414</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K16" t="n">
         <v>147.414</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>14:28:55</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>36</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>build_completion_s=24.596
 design_refine_completion_s=19.927
@@ -765,53 +1401,53 @@
 total_s=110.784</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K17" t="n">
         <v>110.784</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>14:15:28</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>36</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I18" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>build_completion_s=28.565
 design_refine_completion_s=22.528
@@ -822,53 +1458,53 @@
 total_s=127.222</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K18" t="n">
         <v>127.222</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>13:41:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>36</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I19" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>build_completion_s=23.330
 design_refine_completion_s=28.326
@@ -879,53 +1515,53 @@
 total_s=152.395</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K19" t="n">
         <v>152.395</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>13:29:57</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>36</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>build_completion_s=20.752
 design_refine_completion_s=23.613
@@ -936,53 +1572,53 @@
 total_s=87.433</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K20" t="n">
         <v>87.43300000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>10:45:26</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>32</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I21" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>build_completion_s=18.616
 design_refine_completion_s=17.872
@@ -993,7 +1629,7 @@
 total_s=83.765</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K21" t="n">
         <v>83.765</v>
       </c>
     </row>

--- a/telemetry_success.xlsx
+++ b/telemetry_success.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:20:48</t>
+          <t>13:18:38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025.1.8</t>
+          <t>2025.1.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,16 +525,190 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>update</t>
+          <t>initial</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>build_completion_s=29.949
+design_refine_completion_s=24.074
+functional_requirements_enrichment_s=21.485
+gather_inputs_s=0.239
+planning_completion_s=20.745
+refine_completion_s=26.041
+testing_documentation_alignment_s=0.002
+total_s=122.535</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>122.535</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13:08:31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025.1.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>build_completion_s=21.240
+design_refine_completion_s=22.995
+functional_requirements_enrichment_s=24.655
+gather_inputs_s=0.213
+planning_completion_s=14.394
+refine_completion_s=22.712
+testing_documentation_alignment_s=16.362
+total_s=122.571</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>122.571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12:40:05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>build_completion_s=23.949
+design_refine_completion_s=24.932
+functional_requirements_enrichment_s=16.837
+gather_inputs_s=0.278
+planning_completion_s=12.767
+refine_completion_s=22.066
+testing_documentation_alignment_s=8.113
+total_s=108.942</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>108.942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12:20:48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025.1.8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>build_completion_s=27.332
 design_refine_completion_s=21.158
@@ -546,53 +720,53 @@
 total_s=100.557</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K5" t="n">
         <v>100.557</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>12:16:57</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>36</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>build_completion_s=29.627
 design_refine_completion_s=23.510
@@ -604,53 +778,53 @@
 total_s=126.487</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K6" t="n">
         <v>126.487</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>11:58:03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>37</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>build_completion_s=48.851
 design_refine_completion_s=56.609
@@ -662,53 +836,53 @@
 total_s=167.941</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K7" t="n">
         <v>167.941</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>11:41:08</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>36</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>build_completion_s=19.278
 design_refine_completion_s=20.013
@@ -720,53 +894,53 @@
 total_s=103.764</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K8" t="n">
         <v>103.764</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>11:37:11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>29</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>build_completion_s=20.077
 design_refine_completion_s=18.519
@@ -778,53 +952,53 @@
 total_s=90.301</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K9" t="n">
         <v>90.301</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>11:26:15</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>36</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>build_completion_s=27.271
 design_refine_completion_s=66.017
@@ -836,53 +1010,53 @@
 total_s=160.309</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K10" t="n">
         <v>160.309</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>11:09:21</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>35</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>build_completion_s=24.004
 design_refine_completion_s=16.280
@@ -894,53 +1068,53 @@
 total_s=90.998</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K11" t="n">
         <v>90.998</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>10:39:59</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>build_completion_s=21.338
 design_refine_completion_s=65.198
@@ -952,53 +1126,53 @@
 total_s=144.113</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K12" t="n">
         <v>144.113</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>10:32:44</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>36</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>build_completion_s=31.348
 design_refine_completion_s=19.442
@@ -1010,53 +1184,53 @@
 total_s=98.352</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K13" t="n">
         <v>98.352</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>09:11:05</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025.1.7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>37</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>build_completion_s=25.178
 design_refine_completion_s=29.853
@@ -1067,53 +1241,53 @@
 total_s=111.283</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K14" t="n">
         <v>111.283</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>15:31:08</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025.1.6</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>29</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>build_completion_s=14.938
 design_refine_completion_s=15.674
@@ -1124,106 +1298,106 @@
 total_s=79.362</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K15" t="n">
         <v>79.36199999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>14:51:39</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>chat_completion_s=18.658
 gather_inputs_s=0.000
 total_s=18.658</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K16" t="n">
         <v>18.658</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>14:50:14</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>37</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>build_completion_s=18.333
 design_refine_completion_s=18.129
@@ -1234,106 +1408,106 @@
 total_s=82.996</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K17" t="n">
         <v>82.996</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>14:39:22</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>chat_completion_s=49.473
 gather_inputs_s=0.000
 total_s=49.473</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K18" t="n">
         <v>49.473</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>14:37:27</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>36</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>build_completion_s=25.755
 design_refine_completion_s=28.412
@@ -1344,53 +1518,53 @@
 total_s=147.414</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K19" t="n">
         <v>147.414</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>14:28:55</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>36</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>build_completion_s=24.596
 design_refine_completion_s=19.927
@@ -1401,53 +1575,53 @@
 total_s=110.784</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K20" t="n">
         <v>110.784</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>14:15:28</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>36</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>build_completion_s=28.565
 design_refine_completion_s=22.528
@@ -1458,53 +1632,53 @@
 total_s=127.222</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K21" t="n">
         <v>127.222</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>13:41:00</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>36</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>build_completion_s=23.330
 design_refine_completion_s=28.326
@@ -1515,53 +1689,53 @@
 total_s=152.395</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K22" t="n">
         <v>152.395</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>13:29:57</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>36</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>build_completion_s=20.752
 design_refine_completion_s=23.613
@@ -1572,53 +1746,53 @@
 total_s=87.433</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K23" t="n">
         <v>87.43300000000001</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>10:45:26</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>32</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>build_completion_s=18.616
 design_refine_completion_s=17.872
@@ -1629,7 +1803,7 @@
 total_s=83.765</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K24" t="n">
         <v>83.765</v>
       </c>
     </row>

--- a/telemetry_success.xlsx
+++ b/telemetry_success.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -427,7 +427,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
@@ -495,46 +495,502 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09:56:17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Choua Lee</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>build_completion_s=23.537
+design_refine_completion_s=16.643
+functional_requirements_enrichment_s=67.449
+gather_inputs_s=2.153
+planning_completion_s=20.227
+refine_completion_s=30.592
+testing_documentation_alignment_s=0.001
+total_s=160.602</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>160.602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:46:18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>chat_completion_s=8.308
+gather_inputs_s=0.001
+testing_documentation_alignment_s=24.902
+total_s=33.211</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>33.211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>09:54:44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>build_completion_s=22.947
+design_refine_completion_s=66.229
+functional_requirements_enrichment_s=78.126
+gather_inputs_s=0.130
+planning_completion_s=17.505
+refine_completion_s=19.494
+testing_documentation_alignment_s=11.796
+total_s=216.227</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>216.227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09:01:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpt-5-nano</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>build_completion_s=91.818
+design_refine_completion_s=65.037
+functional_requirements_enrichment_s=72.225
+gather_inputs_s=0.229
+planning_completion_s=70.638
+refine_completion_s=46.485
+testing_documentation_alignment_s=0.000
+total_s=346.432</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>346.432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08:17:02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>build_completion_s=28.522
+design_refine_completion_s=27.593
+functional_requirements_enrichment_s=10.721
+gather_inputs_s=17.111
+planning_completion_s=19.166
+refine_completion_s=28.272
+testing_documentation_alignment_s=9.592
+total_s=140.977</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>140.977</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08:06:52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>build_completion_s=22.842
+design_refine_completion_s=26.277
+functional_requirements_enrichment_s=18.214
+gather_inputs_s=25.030
+planning_completion_s=17.520
+refine_completion_s=22.627
+testing_documentation_alignment_s=12.312
+total_s=144.822</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>144.822</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08:01:04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>chat_completion_s=8.393
+gather_inputs_s=0.001
+testing_documentation_alignment_s=0.001
+total_s=8.395</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>8.395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07:50:04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>build_completion_s=21.072
+design_refine_completion_s=19.468
+functional_requirements_enrichment_s=20.253
+gather_inputs_s=0.978
+planning_completion_s=28.665
+refine_completion_s=29.698
+testing_documentation_alignment_s=0.001
+total_s=120.135</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>120.135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>13:18:38</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2025.1.10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>31</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>build_completion_s=29.949
 design_refine_completion_s=24.074
@@ -546,53 +1002,53 @@
 total_s=122.535</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K10" t="n">
         <v>122.535</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>13:08:31</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2025.1.10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>34</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>build_completion_s=21.240
 design_refine_completion_s=22.995
@@ -604,53 +1060,53 @@
 total_s=122.571</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K11" t="n">
         <v>122.571</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>12:40:05</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>build_completion_s=23.949
 design_refine_completion_s=24.932
@@ -662,53 +1118,53 @@
 total_s=108.942</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K12" t="n">
         <v>108.942</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H13" t="n">
         <v>28</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I13" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>build_completion_s=27.332
 design_refine_completion_s=21.158
@@ -720,53 +1176,53 @@
 total_s=100.557</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K13" t="n">
         <v>100.557</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>12:16:57</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>36</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>build_completion_s=29.627
 design_refine_completion_s=23.510
@@ -778,53 +1234,53 @@
 total_s=126.487</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K14" t="n">
         <v>126.487</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>11:58:03</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>37</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>build_completion_s=48.851
 design_refine_completion_s=56.609
@@ -836,53 +1292,53 @@
 total_s=167.941</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K15" t="n">
         <v>167.941</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>11:41:08</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>36</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>build_completion_s=19.278
 design_refine_completion_s=20.013
@@ -894,53 +1350,53 @@
 total_s=103.764</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K16" t="n">
         <v>103.764</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>11:37:11</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>29</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I17" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>build_completion_s=20.077
 design_refine_completion_s=18.519
@@ -952,53 +1408,53 @@
 total_s=90.301</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K17" t="n">
         <v>90.301</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>11:26:15</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>36</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I18" t="n">
         <v>6</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>build_completion_s=27.271
 design_refine_completion_s=66.017
@@ -1010,53 +1466,53 @@
 total_s=160.309</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K18" t="n">
         <v>160.309</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>11:09:21</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>35</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I19" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>build_completion_s=24.004
 design_refine_completion_s=16.280
@@ -1068,53 +1524,53 @@
 total_s=90.998</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K19" t="n">
         <v>90.998</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>10:39:59</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>build_completion_s=21.338
 design_refine_completion_s=65.198
@@ -1126,53 +1582,53 @@
 total_s=144.113</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K20" t="n">
         <v>144.113</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>10:32:44</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025.1.8</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>36</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>build_completion_s=31.348
 design_refine_completion_s=19.442
@@ -1184,53 +1640,53 @@
 total_s=98.352</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K21" t="n">
         <v>98.352</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>09:11:05</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025.1.7</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>37</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I22" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>build_completion_s=25.178
 design_refine_completion_s=29.853
@@ -1241,53 +1697,53 @@
 total_s=111.283</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K22" t="n">
         <v>111.283</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>15:31:08</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2025.1.6</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>29</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>build_completion_s=14.938
 design_refine_completion_s=15.674
@@ -1298,106 +1754,106 @@
 total_s=79.362</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K23" t="n">
         <v>79.36199999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>14:51:39</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>chat_completion_s=18.658
 gather_inputs_s=0.000
 total_s=18.658</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K24" t="n">
         <v>18.658</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>14:50:14</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>37</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>build_completion_s=18.333
 design_refine_completion_s=18.129
@@ -1408,106 +1864,106 @@
 total_s=82.996</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K25" t="n">
         <v>82.996</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>14:39:22</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I26" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>chat_completion_s=49.473
 gather_inputs_s=0.000
 total_s=49.473</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K26" t="n">
         <v>49.473</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>14:37:27</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>36</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I27" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>build_completion_s=25.755
 design_refine_completion_s=28.412
@@ -1518,53 +1974,53 @@
 total_s=147.414</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K27" t="n">
         <v>147.414</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>14:28:55</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>36</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>build_completion_s=24.596
 design_refine_completion_s=19.927
@@ -1575,53 +2031,53 @@
 total_s=110.784</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K28" t="n">
         <v>110.784</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>14:15:28</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>36</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>build_completion_s=28.565
 design_refine_completion_s=22.528
@@ -1632,53 +2088,53 @@
 total_s=127.222</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K29" t="n">
         <v>127.222</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>13:41:00</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025.1.5</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>36</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I30" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>build_completion_s=23.330
 design_refine_completion_s=28.326
@@ -1689,53 +2145,53 @@
 total_s=152.395</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K30" t="n">
         <v>152.395</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>13:29:57</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>36</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I31" t="n">
         <v>5</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>build_completion_s=20.752
 design_refine_completion_s=23.613
@@ -1746,53 +2202,53 @@
 total_s=87.433</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K31" t="n">
         <v>87.43300000000001</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>10:45:26</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>gpt-41</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>32</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>build_completion_s=18.616
 design_refine_completion_s=17.872
@@ -1803,7 +2259,7 @@
 total_s=83.765</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K32" t="n">
         <v>83.765</v>
       </c>
     </row>
